--- a/natmiOut/OldD2/LR-pairs_lrc2p/F2-F2rl1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F2-F2rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +528,1487 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H2">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I2">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J2">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.6982025137956</v>
+        <v>0.4560825</v>
       </c>
       <c r="N2">
-        <v>1.6982025137956</v>
+        <v>0.912165</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1615010054215807</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1190592263411612</v>
       </c>
       <c r="Q2">
-        <v>3.235729352807021</v>
+        <v>0.87302696438625</v>
       </c>
       <c r="R2">
-        <v>3.235729352807021</v>
+        <v>3.492107857545</v>
       </c>
       <c r="S2">
-        <v>0.6023667687402692</v>
+        <v>0.08567449342812562</v>
       </c>
       <c r="T2">
-        <v>0.6023667687402692</v>
+        <v>0.05320783089754393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.41258961714425</v>
+        <v>1.9141865</v>
       </c>
       <c r="H3">
-        <v>0.41258961714425</v>
+        <v>3.828373</v>
       </c>
       <c r="I3">
-        <v>0.1304357351567513</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J3">
-        <v>0.1304357351567513</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.6982025137956</v>
+        <v>1.865021333333333</v>
       </c>
       <c r="N3">
-        <v>1.6982025137956</v>
+        <v>5.595064</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6604130184035349</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7302889183089495</v>
       </c>
       <c r="Q3">
-        <v>0.7006607250003296</v>
+        <v>3.569998658478666</v>
       </c>
       <c r="R3">
-        <v>0.7006607250003296</v>
+        <v>21.419991950872</v>
       </c>
       <c r="S3">
-        <v>0.1304357351567513</v>
+        <v>0.3503417867731841</v>
       </c>
       <c r="T3">
-        <v>0.1304357351567513</v>
+        <v>0.3263677286159145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.501255996428986</v>
+        <v>1.9141865</v>
       </c>
       <c r="H4">
-        <v>0.501255996428986</v>
+        <v>3.828373</v>
       </c>
       <c r="I4">
-        <v>0.1584666498601826</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J4">
-        <v>0.1584666498601826</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.6982025137956</v>
+        <v>0.1483723333333333</v>
       </c>
       <c r="N4">
-        <v>1.6982025137956</v>
+        <v>0.445117</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.05253935638854645</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.05809835463024635</v>
       </c>
       <c r="Q4">
-        <v>0.8512341931908224</v>
+        <v>0.2840123174401666</v>
       </c>
       <c r="R4">
-        <v>0.8512341931908224</v>
+        <v>1.704073904641</v>
       </c>
       <c r="S4">
-        <v>0.1584666498601826</v>
+        <v>0.02787154625990326</v>
       </c>
       <c r="T4">
-        <v>0.1584666498601826</v>
+        <v>0.02596428284972791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.9141865</v>
+      </c>
+      <c r="H5">
+        <v>3.828373</v>
+      </c>
+      <c r="I5">
+        <v>0.5304889167995069</v>
+      </c>
+      <c r="J5">
+        <v>0.4469022060086147</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.3545465</v>
+      </c>
+      <c r="N5">
+        <v>0.709093</v>
+      </c>
+      <c r="O5">
+        <v>0.1255466197863379</v>
+      </c>
+      <c r="P5">
+        <v>0.09255350071964288</v>
+      </c>
+      <c r="Q5">
+        <v>0.67866812392225</v>
+      </c>
+      <c r="R5">
+        <v>2.714672495689</v>
+      </c>
+      <c r="S5">
+        <v>0.06660109033829392</v>
+      </c>
+      <c r="T5">
+        <v>0.04136236364542831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.524746</v>
+      </c>
+      <c r="H6">
+        <v>1.574238</v>
+      </c>
+      <c r="I6">
+        <v>0.145425713291194</v>
+      </c>
+      <c r="J6">
+        <v>0.1837674738022104</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.4560825</v>
+      </c>
+      <c r="N6">
+        <v>0.912165</v>
+      </c>
+      <c r="O6">
+        <v>0.1615010054215807</v>
+      </c>
+      <c r="P6">
+        <v>0.1190592263411612</v>
+      </c>
+      <c r="Q6">
+        <v>0.239327467545</v>
+      </c>
+      <c r="R6">
+        <v>1.43596480527</v>
+      </c>
+      <c r="S6">
+        <v>0.02348639891067836</v>
+      </c>
+      <c r="T6">
+        <v>0.02187921325756079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.524746</v>
+      </c>
+      <c r="H7">
+        <v>1.574238</v>
+      </c>
+      <c r="I7">
+        <v>0.145425713291194</v>
+      </c>
+      <c r="J7">
+        <v>0.1837674738022104</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.865021333333333</v>
+      </c>
+      <c r="N7">
+        <v>5.595064</v>
+      </c>
+      <c r="O7">
+        <v>0.6604130184035349</v>
+      </c>
+      <c r="P7">
+        <v>0.7302889183089495</v>
+      </c>
+      <c r="Q7">
+        <v>0.9786624845813333</v>
+      </c>
+      <c r="R7">
+        <v>8.807962361232001</v>
+      </c>
+      <c r="S7">
+        <v>0.09604103426812449</v>
+      </c>
+      <c r="T7">
+        <v>0.1342033496633844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.524746</v>
+      </c>
+      <c r="H8">
+        <v>1.574238</v>
+      </c>
+      <c r="I8">
+        <v>0.145425713291194</v>
+      </c>
+      <c r="J8">
+        <v>0.1837674738022104</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1483723333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.445117</v>
+      </c>
+      <c r="O8">
+        <v>0.05253935638854645</v>
+      </c>
+      <c r="P8">
+        <v>0.05809835463024635</v>
+      </c>
+      <c r="Q8">
+        <v>0.07785778842733333</v>
+      </c>
+      <c r="R8">
+        <v>0.700720095846</v>
+      </c>
+      <c r="S8">
+        <v>0.007640573378664618</v>
+      </c>
+      <c r="T8">
+        <v>0.01067658786246533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.524746</v>
+      </c>
+      <c r="H9">
+        <v>1.574238</v>
+      </c>
+      <c r="I9">
+        <v>0.145425713291194</v>
+      </c>
+      <c r="J9">
+        <v>0.1837674738022104</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.3545465</v>
+      </c>
+      <c r="N9">
+        <v>0.709093</v>
+      </c>
+      <c r="O9">
+        <v>0.1255466197863379</v>
+      </c>
+      <c r="P9">
+        <v>0.09255350071964288</v>
+      </c>
+      <c r="Q9">
+        <v>0.186046857689</v>
+      </c>
+      <c r="R9">
+        <v>1.116281146134</v>
+      </c>
+      <c r="S9">
+        <v>0.01825770673372652</v>
+      </c>
+      <c r="T9">
+        <v>0.01700832301879984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.370337</v>
+      </c>
+      <c r="I10">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J10">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.4560825</v>
+      </c>
+      <c r="N10">
+        <v>0.912165</v>
+      </c>
+      <c r="O10">
+        <v>0.1615010054215807</v>
+      </c>
+      <c r="P10">
+        <v>0.1190592263411612</v>
+      </c>
+      <c r="Q10">
+        <v>0.05630140826750001</v>
+      </c>
+      <c r="R10">
+        <v>0.337808449605</v>
+      </c>
+      <c r="S10">
+        <v>0.005525138202345446</v>
+      </c>
+      <c r="T10">
+        <v>0.005147050319052957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.370337</v>
+      </c>
+      <c r="I11">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J11">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.865021333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.595064</v>
+      </c>
+      <c r="O11">
+        <v>0.6604130184035349</v>
+      </c>
+      <c r="P11">
+        <v>0.7302889183089495</v>
+      </c>
+      <c r="Q11">
+        <v>0.2302288018408889</v>
+      </c>
+      <c r="R11">
+        <v>2.072059216568</v>
+      </c>
+      <c r="S11">
+        <v>0.02259350143228306</v>
+      </c>
+      <c r="T11">
+        <v>0.03157112577913174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.370337</v>
+      </c>
+      <c r="I12">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J12">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1483723333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.445117</v>
+      </c>
+      <c r="O12">
+        <v>0.05253935638854645</v>
+      </c>
+      <c r="P12">
+        <v>0.05809835463024635</v>
+      </c>
+      <c r="Q12">
+        <v>0.01831592160322222</v>
+      </c>
+      <c r="R12">
+        <v>0.164843294429</v>
+      </c>
+      <c r="S12">
+        <v>0.00179743280452798</v>
+      </c>
+      <c r="T12">
+        <v>0.00251165041068874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1234456666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.370337</v>
+      </c>
+      <c r="I13">
+        <v>0.03421116907552791</v>
+      </c>
+      <c r="J13">
+        <v>0.04323100760208379</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.3545465</v>
+      </c>
+      <c r="N13">
+        <v>0.709093</v>
+      </c>
+      <c r="O13">
+        <v>0.1255466197863379</v>
+      </c>
+      <c r="P13">
+        <v>0.09255350071964288</v>
+      </c>
+      <c r="Q13">
+        <v>0.04376722905683333</v>
+      </c>
+      <c r="R13">
+        <v>0.262603374341</v>
+      </c>
+      <c r="S13">
+        <v>0.004295096636371423</v>
+      </c>
+      <c r="T13">
+        <v>0.00400118109321035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.461005</v>
+      </c>
+      <c r="I14">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J14">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.4560825</v>
+      </c>
+      <c r="N14">
+        <v>0.912165</v>
+      </c>
+      <c r="O14">
+        <v>0.1615010054215807</v>
+      </c>
+      <c r="P14">
+        <v>0.1190592263411612</v>
+      </c>
+      <c r="Q14">
+        <v>0.0700854376375</v>
+      </c>
+      <c r="R14">
+        <v>0.420512625825</v>
+      </c>
+      <c r="S14">
+        <v>0.006877833802650725</v>
+      </c>
+      <c r="T14">
+        <v>0.006407180304249935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.461005</v>
+      </c>
+      <c r="I15">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J15">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.865021333333333</v>
+      </c>
+      <c r="N15">
+        <v>5.595064</v>
+      </c>
+      <c r="O15">
+        <v>0.6604130184035349</v>
+      </c>
+      <c r="P15">
+        <v>0.7302889183089495</v>
+      </c>
+      <c r="Q15">
+        <v>0.2865947199244444</v>
+      </c>
+      <c r="R15">
+        <v>2.57935247932</v>
+      </c>
+      <c r="S15">
+        <v>0.02812497030485652</v>
+      </c>
+      <c r="T15">
+        <v>0.03930054744680826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.461005</v>
+      </c>
+      <c r="I16">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J16">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1483723333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.445117</v>
+      </c>
+      <c r="O16">
+        <v>0.05253935638854645</v>
+      </c>
+      <c r="P16">
+        <v>0.05809835463024635</v>
+      </c>
+      <c r="Q16">
+        <v>0.02280012917611111</v>
+      </c>
+      <c r="R16">
+        <v>0.205201162585</v>
+      </c>
+      <c r="S16">
+        <v>0.002237490475030638</v>
+      </c>
+      <c r="T16">
+        <v>0.00312656687714045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.461005</v>
+      </c>
+      <c r="I17">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J17">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.3545465</v>
+      </c>
+      <c r="N17">
+        <v>0.709093</v>
+      </c>
+      <c r="O17">
+        <v>0.1255466197863379</v>
+      </c>
+      <c r="P17">
+        <v>0.09255350071964288</v>
+      </c>
+      <c r="Q17">
+        <v>0.05448256974416666</v>
+      </c>
+      <c r="R17">
+        <v>0.326895418465</v>
+      </c>
+      <c r="S17">
+        <v>0.005346646499945745</v>
+      </c>
+      <c r="T17">
+        <v>0.004980772890301096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.643757</v>
+      </c>
+      <c r="I18">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J18">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.4560825</v>
+      </c>
+      <c r="N18">
+        <v>0.912165</v>
+      </c>
+      <c r="O18">
+        <v>0.1615010054215807</v>
+      </c>
+      <c r="P18">
+        <v>0.1190592263411612</v>
+      </c>
+      <c r="Q18">
+        <v>0.2498962673175</v>
+      </c>
+      <c r="R18">
+        <v>1.499377603905</v>
+      </c>
+      <c r="S18">
+        <v>0.02452356798287166</v>
+      </c>
+      <c r="T18">
+        <v>0.02284540834779007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="H5">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="I5">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="J5">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.6982025137956</v>
-      </c>
-      <c r="N5">
-        <v>1.6982025137956</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.584068725237175</v>
-      </c>
-      <c r="R5">
-        <v>0.584068725237175</v>
-      </c>
-      <c r="S5">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="T5">
-        <v>0.108730846242797</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.643757</v>
+      </c>
+      <c r="I19">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J19">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.865021333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.595064</v>
+      </c>
+      <c r="O19">
+        <v>0.6604130184035349</v>
+      </c>
+      <c r="P19">
+        <v>0.7302889183089495</v>
+      </c>
+      <c r="Q19">
+        <v>1.021880623938666</v>
+      </c>
+      <c r="R19">
+        <v>9.196925615447999</v>
+      </c>
+      <c r="S19">
+        <v>0.1002822459916922</v>
+      </c>
+      <c r="T19">
+        <v>0.1401298249900179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.643757</v>
+      </c>
+      <c r="I20">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J20">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1483723333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.445117</v>
+      </c>
+      <c r="O20">
+        <v>0.05253935638854645</v>
+      </c>
+      <c r="P20">
+        <v>0.05809835463024635</v>
+      </c>
+      <c r="Q20">
+        <v>0.08129602050766666</v>
+      </c>
+      <c r="R20">
+        <v>0.731664184569</v>
+      </c>
+      <c r="S20">
+        <v>0.007977984253456982</v>
+      </c>
+      <c r="T20">
+        <v>0.01114807039027289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.643757</v>
+      </c>
+      <c r="I21">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J21">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.3545465</v>
+      </c>
+      <c r="N21">
+        <v>0.709093</v>
+      </c>
+      <c r="O21">
+        <v>0.1255466197863379</v>
+      </c>
+      <c r="P21">
+        <v>0.09255350071964288</v>
+      </c>
+      <c r="Q21">
+        <v>0.1942627637335</v>
+      </c>
+      <c r="R21">
+        <v>1.165576582401</v>
+      </c>
+      <c r="S21">
+        <v>0.01906397460073387</v>
+      </c>
+      <c r="T21">
+        <v>0.01775941758515127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3443785</v>
+      </c>
+      <c r="H22">
+        <v>0.688757</v>
+      </c>
+      <c r="I22">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J22">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.4560825</v>
+      </c>
+      <c r="N22">
+        <v>0.912165</v>
+      </c>
+      <c r="O22">
+        <v>0.1615010054215807</v>
+      </c>
+      <c r="P22">
+        <v>0.1190592263411612</v>
+      </c>
+      <c r="Q22">
+        <v>0.15706500722625</v>
+      </c>
+      <c r="R22">
+        <v>0.628260028905</v>
+      </c>
+      <c r="S22">
+        <v>0.01541357309490886</v>
+      </c>
+      <c r="T22">
+        <v>0.009572543214963553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3443785</v>
+      </c>
+      <c r="H23">
+        <v>0.688757</v>
+      </c>
+      <c r="I23">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J23">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.865021333333333</v>
+      </c>
+      <c r="N23">
+        <v>5.595064</v>
+      </c>
+      <c r="O23">
+        <v>0.6604130184035349</v>
+      </c>
+      <c r="P23">
+        <v>0.7302889183089495</v>
+      </c>
+      <c r="Q23">
+        <v>0.6422732492413332</v>
+      </c>
+      <c r="R23">
+        <v>3.853639495448</v>
+      </c>
+      <c r="S23">
+        <v>0.06302947963339464</v>
+      </c>
+      <c r="T23">
+        <v>0.05871634181369251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3443785</v>
+      </c>
+      <c r="H24">
+        <v>0.688757</v>
+      </c>
+      <c r="I24">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J24">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1483723333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.445117</v>
+      </c>
+      <c r="O24">
+        <v>0.05253935638854645</v>
+      </c>
+      <c r="P24">
+        <v>0.05809835463024635</v>
+      </c>
+      <c r="Q24">
+        <v>0.05109624159483333</v>
+      </c>
+      <c r="R24">
+        <v>0.306577449569</v>
+      </c>
+      <c r="S24">
+        <v>0.005014329216962974</v>
+      </c>
+      <c r="T24">
+        <v>0.00467119623995103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3443785</v>
+      </c>
+      <c r="H25">
+        <v>0.688757</v>
+      </c>
+      <c r="I25">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J25">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.3545465</v>
+      </c>
+      <c r="N25">
+        <v>0.709093</v>
+      </c>
+      <c r="O25">
+        <v>0.1255466197863379</v>
+      </c>
+      <c r="P25">
+        <v>0.09255350071964288</v>
+      </c>
+      <c r="Q25">
+        <v>0.12209819185025</v>
+      </c>
+      <c r="R25">
+        <v>0.488392767401</v>
+      </c>
+      <c r="S25">
+        <v>0.0119821049772664</v>
+      </c>
+      <c r="T25">
+        <v>0.007441442486752014</v>
       </c>
     </row>
   </sheetData>
